--- a/src/main/resources/template/excel/export/DiLiverReport.xlsx
+++ b/src/main/resources/template/excel/export/DiLiverReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="E3")</t>
+          <t>jx:area(lastCell="E4")</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>${obj.amount}</t>
   </si>
@@ -96,6 +96,17 @@
   </si>
   <si>
     <t>${obj.targetBranchName}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>$[SUM(C3)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(D3)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -187,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -201,12 +212,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -226,7 +308,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -505,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -562,6 +644,19 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>

--- a/src/main/resources/template/excel/export/DiLiverReport.xlsx
+++ b/src/main/resources/template/excel/export/DiLiverReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,6 +31,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:area(lastCell="E3")</t>
@@ -43,6 +44,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="E3")</t>
@@ -119,6 +121,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -126,22 +129,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -508,7 +515,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/template/excel/export/DiLiverReport.xlsx
+++ b/src/main/resources/template/excel/export/DiLiverReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,9 +31,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="E4")</t>
+          <t>jx:area(lastCell="E3")</t>
         </r>
       </text>
     </comment>
@@ -43,6 +44,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="E3")</t>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>${obj.amount}</t>
   </si>
@@ -96,17 +98,6 @@
   </si>
   <si>
     <t>${obj.targetBranchName}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>$[SUM(C3)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(D3)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -130,6 +121,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -137,22 +129,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -198,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -212,83 +208,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -308,7 +233,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -587,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -644,19 +569,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>

--- a/src/main/resources/template/excel/export/DiLiverReport.xlsx
+++ b/src/main/resources/template/excel/export/DiLiverReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -61,10 +61,6 @@
     <t>${obj.amount}</t>
   </si>
   <si>
-    <t>BD业绩报表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>${obj.salesman}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -98,6 +94,10 @@
   </si>
   <si>
     <t>${obj.targetBranchName}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${branchName}BD业绩报表</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -214,6 +214,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -233,7 +301,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -515,7 +583,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -528,7 +596,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -537,36 +605,36 @@
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
